--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_115.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_115.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,538 +488,566 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[('0:00:34.860000', '0:00:39.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:38.620000', '0:00:44.060000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1380952380952381</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G', 'D/3']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E', 'B']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(76.889251, 81.614512)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.402743, 19.871043)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:00:10.100000', '0:00:15.420000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:42.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3553921568627451</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj', 'D:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[['D', 'A', 'E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[('0:00:41.282000', '0:01:03.135000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.964095', '0:00:18.117383')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.475</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1023,182 +1056,136 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.7, 5.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.82, 24.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
